--- a/datasets/facilities.xlsx
+++ b/datasets/facilities.xlsx
@@ -1,59 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caprisa-my.sharepoint.com/personal/johan_molen_caprisa_org/Documents/Documents/Education/R_course_one_day_2024/R_intro_workshop/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8D7EFDCE8F79A8D366075C52F34622F5987DA6BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D02352D-0EAF-4ABD-9D05-38F3A053B742}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>facility_id</t>
-  </si>
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>central hospital</t>
-  </si>
-  <si>
-    <t>hospital a</t>
-  </si>
-  <si>
-    <t>hospital b</t>
-  </si>
-  <si>
-    <t>military hospital</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>port hospital</t>
-  </si>
-  <si>
-    <t>st. marks maternity hospital (smmh)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,78 +350,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="30.83984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Central Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Military Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Port Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>St. Mark's Maternity Hospital (SMMH)</t>
+        </is>
       </c>
     </row>
   </sheetData>
